--- a/Track Parts/Starting Gate with Timer/Bill of Materials - Start Gate.xlsx
+++ b/Track Parts/Starting Gate with Timer/Bill of Materials - Start Gate.xlsx
@@ -15,12 +15,249 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+  <si>
+    <t>Required for</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Part Description</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>3D Printer Filament</t>
+  </si>
+  <si>
+    <t>eSun</t>
+  </si>
+  <si>
+    <t>PLA Pro (PLA+) White</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B01EKEMFQS/ref=ppx_yo_dt_b_asin_title_o01_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Interface Box</t>
+  </si>
+  <si>
+    <t>LCD Screen</t>
+  </si>
+  <si>
+    <t>NOYITO</t>
+  </si>
+  <si>
+    <t>1602 16x2 LCD Module Blue Backlight</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B07SYPPTWN/ref=ppx_yo_dt_b_asin_title_o02_s02?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Start Gate</t>
+  </si>
+  <si>
+    <t>Power Supply</t>
+  </si>
+  <si>
+    <t>Corporate Computer</t>
+  </si>
+  <si>
+    <t>9V 1A Arduino Compatible Power Supply Adapter 110V AC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B018OLREG4/ref=ppx_yo_dt_b_asin_title_o02_s02?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Sensor Mounts</t>
+  </si>
+  <si>
+    <t>IR Break Beam Sensor</t>
+  </si>
+  <si>
+    <t>Adafruit</t>
+  </si>
+  <si>
+    <t>IR Break Beam Sensor - 3mm LEDs</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B01BU6YBWU/ref=ppx_yo_dt_b_asin_title_o02_s02?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Arduino Uno</t>
+  </si>
+  <si>
+    <t>SunFounder</t>
+  </si>
+  <si>
+    <t>R3 Board for Arduino ATMEGA328P ATMEGA16U2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B08353DL5P/ref=ppx_yo_dt_b_asin_title_o02_s04?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>9g Servo Motor</t>
+  </si>
+  <si>
+    <t>Upenten</t>
+  </si>
+  <si>
+    <t>2pcs SG90 9G Micro Servo Motor</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Upenten-Micro-Helicopter-Remote-Control/dp/B07KVKP1RV/ref=sr_1_10?dchild=1&amp;keywords=9g+motor&amp;qid=1596222242&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>DB9 Connector Female</t>
+  </si>
+  <si>
+    <t>Willwin</t>
+  </si>
+  <si>
+    <t>Willwin DB9 Female Connector</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Willwin-Female-Accessories-Connector-Adaptor/dp/B074QGFDM8/ref=sr_1_7_sspa?crid=4TJRCFDRAYB1&amp;dchild=1&amp;keywords=db9%2Bconnector&amp;qid=1596222297&amp;sprefix=DB9%2Caps%2C171&amp;sr=8-7-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzS084M1pCTUZXNkRFJmVuY3J5cHRlZElkPUExMDI5Njk5Mjg3TjgxV0FaRUlQVSZlbmNyeXB0ZWRBZElkPUEwODgxOTg4MzlHWVoxUkNOUVhLUCZ3aWRnZXROYW1lPXNwX210ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1</t>
+  </si>
+  <si>
+    <t>DB9 Connector Male</t>
+  </si>
+  <si>
+    <t>Willwin DB9 Male Connector</t>
+  </si>
+  <si>
+    <t>Magnets</t>
+  </si>
+  <si>
+    <t>McMaster</t>
+  </si>
+  <si>
+    <t>SPST-NO Switch</t>
+  </si>
+  <si>
+    <t>GPB023A05BR</t>
+  </si>
+  <si>
+    <t>CW Industries</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/cw-industries/GPB023A05BR/SW626-ND/2235498</t>
+  </si>
+  <si>
+    <t>DB9 Cable</t>
+  </si>
+  <si>
+    <t>Custom Cable Connection</t>
+  </si>
+  <si>
+    <t>6 Foot DB9 Male to Female RS232 Extension Serial Cable - 28 AWG Shielded</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Female-Extension-RS232-Serial-Cable/dp/B06XTD479F/ref=sr_1_1_sspa?dchild=1&amp;keywords=DB9%2Bcable&amp;qid=1596223468&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE4SzYzTDhJSVZMM0smZW5jcnlwdGVkSWQ9QTA0MTE3MjM4STVES0xMVU9FQkImZW5jcnlwdGVkQWRJZD1BMDU4MjE4MzNOTFExSFQyRVNHNTImd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl&amp;th=1</t>
+  </si>
+  <si>
+    <t>608ZZ Bearings</t>
+  </si>
+  <si>
+    <t>VXB</t>
+  </si>
+  <si>
+    <t>608ZZ 8x22x7 Shielded Greased Miniature Ball Bearing</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B002BBD6X4/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Paper Clip</t>
+  </si>
+  <si>
+    <t>3mm Tap</t>
+  </si>
+  <si>
+    <t>Rocaris</t>
+  </si>
+  <si>
+    <t>Adjustable T-Handle Ratchet Tap Holder with M3 Tap</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0736T5NM6/ref=sr_1_1_sspa?dchild=1&amp;keywords=3mm+Tap&amp;qid=1596223645&amp;s=industrial&amp;sr=1-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExNUkyOUpFR0pMNklHJmVuY3J5cHRlZElkPUEwOTkxNDU2Mjg5MVlMSE1TMU85MiZlbmNyeXB0ZWRBZElkPUEwMjcyMjA2MzExQlZVMDJEQUdWMCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=</t>
+  </si>
+  <si>
+    <t>Adhesive Door Bumpers</t>
+  </si>
+  <si>
+    <t>llxieym</t>
+  </si>
+  <si>
+    <t>Clear Rubber Feet Adhesive Door Bumper Pads</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B073W1B3G1/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>M3 Broaching Nuts</t>
+  </si>
+  <si>
+    <t>M3 x 10mm Screws</t>
+  </si>
+  <si>
+    <t>Hot Glue</t>
+  </si>
+  <si>
+    <t>M3 Nylon Hex Nuts</t>
+  </si>
+  <si>
+    <t>M3 x 6mm Screws</t>
+  </si>
+  <si>
+    <t>M3 x 12mm Screws</t>
+  </si>
+  <si>
+    <t>Neodymium Magnet 1/8" Thick, 3/16" OD</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/5862K102/</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/95117A499/</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -43,13 +280,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -349,13 +590,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="97.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F7" r:id="rId3"/>
+    <hyperlink ref="F6" r:id="rId4"/>
+    <hyperlink ref="F8" r:id="rId5"/>
+    <hyperlink ref="F9" r:id="rId6"/>
+    <hyperlink ref="F10"/>
+    <hyperlink ref="F4"/>
+    <hyperlink ref="F5" r:id="rId7"/>
+    <hyperlink ref="F12" r:id="rId8" display="https://www.amazon.com/Female-Extension-RS232-Serial-Cable/dp/B06XTD479F/ref=sr_1_1_sspa?dchild=1&amp;keywords=DB9%2Bcable&amp;qid=1596223468&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE4SzYzTDhJSVZMM0smZW5jcnlwdGVkSWQ9QTA0MTE3MjM4STVES0xMVU9FQkImZW5jcnlwdGVkQWRJZD1BMDU4MjE4MzNOTFExSFQyRVNHNTImd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl&amp;th=1"/>
+    <hyperlink ref="F13" r:id="rId9"/>
+    <hyperlink ref="F15" r:id="rId10" display="https://www.amazon.com/dp/B0736T5NM6/ref=sr_1_1_sspa?dchild=1&amp;keywords=3mm+Tap&amp;qid=1596223645&amp;s=industrial&amp;sr=1-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExNUkyOUpFR0pMNklHJmVuY3J5cHRlZElkPUEwOTkxNDU2Mjg5MVlMSE1TMU85MiZlbmNyeXB0ZWRBZElkPUEwMjcyMjA2MzExQlZVMDJEQUdWMCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="F16" r:id="rId11"/>
+    <hyperlink ref="F11" r:id="rId12"/>
+    <hyperlink ref="F17" r:id="rId13"/>
+    <hyperlink ref="F21" r:id="rId14"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/Track Parts/Starting Gate with Timer/Bill of Materials - Start Gate.xlsx
+++ b/Track Parts/Starting Gate with Timer/Bill of Materials - Start Gate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t>Required for</t>
   </si>
@@ -590,17 +590,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="97.7109375" bestFit="1" customWidth="1"/>
@@ -831,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
@@ -969,7 +969,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>63</v>
@@ -983,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>67</v>
@@ -998,6 +998,71 @@
       </c>
       <c r="C23" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1008,8 +1073,8 @@
     <hyperlink ref="F6" r:id="rId4"/>
     <hyperlink ref="F8" r:id="rId5"/>
     <hyperlink ref="F9" r:id="rId6"/>
-    <hyperlink ref="F10"/>
-    <hyperlink ref="F4"/>
+    <hyperlink ref="F10" display="https://www.amazon.com/Willwin-Female-Accessories-Connector-Adaptor/dp/B074QGFDM8/ref=sr_1_7_sspa?crid=4TJRCFDRAYB1&amp;dchild=1&amp;keywords=db9%2Bconnector&amp;qid=1596222297&amp;sprefix=DB9%2Caps%2C171&amp;sr=8-7-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzS084M1pCTUZXNkRFJmVu"/>
+    <hyperlink ref="F4" display="https://www.amazon.com/Willwin-Female-Accessories-Connector-Adaptor/dp/B074QGFDM8/ref=sr_1_7_sspa?crid=4TJRCFDRAYB1&amp;dchild=1&amp;keywords=db9%2Bconnector&amp;qid=1596222297&amp;sprefix=DB9%2Caps%2C171&amp;sr=8-7-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzS084M1pCTUZXNkRFJmVu"/>
     <hyperlink ref="F5" r:id="rId7"/>
     <hyperlink ref="F12" r:id="rId8" display="https://www.amazon.com/Female-Extension-RS232-Serial-Cable/dp/B06XTD479F/ref=sr_1_1_sspa?dchild=1&amp;keywords=DB9%2Bcable&amp;qid=1596223468&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE4SzYzTDhJSVZMM0smZW5jcnlwdGVkSWQ9QTA0MTE3MjM4STVES0xMVU9FQkImZW5jcnlwdGVkQWRJZD1BMDU4MjE4MzNOTFExSFQyRVNHNTImd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl&amp;th=1"/>
     <hyperlink ref="F13" r:id="rId9"/>
@@ -1018,9 +1083,12 @@
     <hyperlink ref="F11" r:id="rId12"/>
     <hyperlink ref="F17" r:id="rId13"/>
     <hyperlink ref="F21" r:id="rId14"/>
+    <hyperlink ref="F24" display="https://www.amazon.com/Willwin-Female-Accessories-Connector-Adaptor/dp/B074QGFDM8/ref=sr_1_7_sspa?crid=4TJRCFDRAYB1&amp;dchild=1&amp;keywords=db9%2Bconnector&amp;qid=1596222297&amp;sprefix=DB9%2Caps%2C171&amp;sr=8-7-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzS084M1pCTUZXNkRFJmVu"/>
+    <hyperlink ref="F25" display="https://www.amazon.com/Willwin-Female-Accessories-Connector-Adaptor/dp/B074QGFDM8/ref=sr_1_7_sspa?crid=4TJRCFDRAYB1&amp;dchild=1&amp;keywords=db9%2Bconnector&amp;qid=1596222297&amp;sprefix=DB9%2Caps%2C171&amp;sr=8-7-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzS084M1pCTUZXNkRFJmVu"/>
+    <hyperlink ref="F26" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/Track Parts/Starting Gate with Timer/Bill of Materials - Start Gate.xlsx
+++ b/Track Parts/Starting Gate with Timer/Bill of Materials - Start Gate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>Required for</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>https://www.mcmaster.com/95117A499/</t>
+  </si>
+  <si>
+    <t>#4 - 18-8 5/16" Self Tapping Screw</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/90065A107/</t>
   </si>
 </sst>
 </file>
@@ -590,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,6 +1069,20 @@
       </c>
       <c r="C27" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1086,9 +1106,10 @@
     <hyperlink ref="F24" display="https://www.amazon.com/Willwin-Female-Accessories-Connector-Adaptor/dp/B074QGFDM8/ref=sr_1_7_sspa?crid=4TJRCFDRAYB1&amp;dchild=1&amp;keywords=db9%2Bconnector&amp;qid=1596222297&amp;sprefix=DB9%2Caps%2C171&amp;sr=8-7-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzS084M1pCTUZXNkRFJmVu"/>
     <hyperlink ref="F25" display="https://www.amazon.com/Willwin-Female-Accessories-Connector-Adaptor/dp/B074QGFDM8/ref=sr_1_7_sspa?crid=4TJRCFDRAYB1&amp;dchild=1&amp;keywords=db9%2Bconnector&amp;qid=1596222297&amp;sprefix=DB9%2Caps%2C171&amp;sr=8-7-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzS084M1pCTUZXNkRFJmVu"/>
     <hyperlink ref="F26" r:id="rId15"/>
+    <hyperlink ref="F28" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
